--- a/Docs/材料物性値.xlsx
+++ b/Docs/材料物性値.xlsx
@@ -229,9 +229,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="#,##0.000;[Red]#,##0.000"/>
+    <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000;[Red]#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -295,35 +295,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,8 +332,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -645,7 +673,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -657,12 +685,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
@@ -690,26 +718,26 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
@@ -718,38 +746,38 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.22</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>830</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>750</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>3.6*B3</f>
         <v>0.79200000000000004</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>H3*I3</f>
         <v>825.00000000000011</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>D3</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <f t="shared" ref="I3" si="0">E3</f>
         <v>750</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>9</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f>J3/1000/F3</f>
         <v>1.1363636363636362E-2</v>
       </c>
@@ -764,38 +792,38 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>2000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.88</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2300</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>3.6*B4</f>
         <v>5.7600000000000007</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>H4*I4</f>
         <v>2024</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" ref="H4" si="1">D4</f>
         <v>0.88</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f t="shared" ref="I4" si="2">E4</f>
         <v>2300</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>150</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <f>J4/1000/F4</f>
         <v>2.6041666666666664E-2</v>
       </c>
@@ -810,38 +838,38 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>40</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>31</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>3.6*B5</f>
         <v>0.1008</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>H5*I5</f>
         <v>40.300000000000004</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>D5</f>
         <v>1.3</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f>E5</f>
         <v>31</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>30</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <f>J5/1000/F5</f>
         <v>0.29761904761904762</v>
       </c>
@@ -853,15 +881,15 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="O6" t="s">
         <v>18</v>
       </c>
@@ -870,7 +898,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Docs/材料物性値.xlsx
+++ b/Docs/材料物性値.xlsx
@@ -146,16 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TRNSYS側は計算値</t>
-    <rPh sb="6" eb="7">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ケイサンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>比熱</t>
     <rPh sb="0" eb="2">
       <t>ヒネツ</t>
@@ -194,10 +184,6 @@
     <rPh sb="0" eb="4">
       <t>ネツデンドウリツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[W/(mK)]=[0.001kJ/(1/3600h)/mK]=[3.6kJ/hmK]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -221,6 +207,26 @@
     <rPh sb="1" eb="4">
       <t>テイコウチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRNSYS側は比熱×密度の計算値</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒネツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ケイサンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[W/(mK)]=[0.001kJ/(1/3600h)/mK]=[3.6kJ/hmK]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -304,18 +310,9 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -323,10 +320,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,79 +676,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
-    <col min="2" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="3.5546875" customWidth="1"/>
+    <col min="14" max="14" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="2"/>
-      <c r="O1" t="s">
-        <v>23</v>
+      <c r="M1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="56.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="O2" s="1" t="s">
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -758,7 +766,7 @@
       <c r="E3" s="3">
         <v>750</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <f>3.6*B3</f>
         <v>0.79200000000000004</v>
       </c>
@@ -766,7 +774,7 @@
         <f>H3*I3</f>
         <v>825.00000000000011</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="13">
         <f>D3</f>
         <v>1.1000000000000001</v>
       </c>
@@ -774,21 +782,21 @@
         <f t="shared" ref="I3" si="0">E3</f>
         <v>750</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>9</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f>J3/1000/F3</f>
         <v>1.1363636363636362E-2</v>
       </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -804,7 +812,7 @@
       <c r="E4" s="3">
         <v>2300</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <f>3.6*B4</f>
         <v>5.7600000000000007</v>
       </c>
@@ -812,7 +820,7 @@
         <f>H4*I4</f>
         <v>2024</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="13">
         <f t="shared" ref="H4" si="1">D4</f>
         <v>0.88</v>
       </c>
@@ -820,21 +828,21 @@
         <f t="shared" ref="I4" si="2">E4</f>
         <v>2300</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="7">
         <v>150</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f>J4/1000/F4</f>
         <v>2.6041666666666664E-2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" t="s">
-        <v>16</v>
+      <c r="N4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -850,7 +858,7 @@
       <c r="E5" s="3">
         <v>31</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <f>3.6*B5</f>
         <v>0.1008</v>
       </c>
@@ -858,7 +866,7 @@
         <f>H5*I5</f>
         <v>40.300000000000004</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="13">
         <f>D5</f>
         <v>1.3</v>
       </c>
@@ -866,21 +874,21 @@
         <f>E5</f>
         <v>31</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="7">
         <v>30</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <f>J5/1000/F5</f>
         <v>0.29761904761904762</v>
       </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -890,14 +898,14 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="O6" t="s">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
         <v>18</v>
       </c>
-      <c r="P6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
     </row>
   </sheetData>
@@ -906,6 +914,10 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;D</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Docs/材料物性値.xlsx
+++ b/Docs/材料物性値.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>材料名</t>
     <rPh sb="0" eb="2">
@@ -227,6 +227,13 @@
   </si>
   <si>
     <t>[W/(mK)]=[0.001kJ/(1/3600h)/mK]=[3.6kJ/hmK]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼材</t>
+    <rPh sb="0" eb="2">
+      <t>コウザイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,14 +332,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,30 +689,31 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:K5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="11" width="9.21875" customWidth="1"/>
+    <col min="2" max="10" width="9.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
     <col min="12" max="12" width="3.5546875" customWidth="1"/>
     <col min="14" max="14" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="2"/>
       <c r="M1" t="s">
         <v>21</v>
@@ -766,7 +774,7 @@
       <c r="E3" s="3">
         <v>750</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <f>3.6*B3</f>
         <v>0.79200000000000004</v>
       </c>
@@ -774,7 +782,7 @@
         <f>H3*I3</f>
         <v>825.00000000000011</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <f>D3</f>
         <v>1.1000000000000001</v>
       </c>
@@ -812,7 +820,7 @@
       <c r="E4" s="3">
         <v>2300</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <f>3.6*B4</f>
         <v>5.7600000000000007</v>
       </c>
@@ -820,7 +828,7 @@
         <f>H4*I4</f>
         <v>2024</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <f t="shared" ref="H4" si="1">D4</f>
         <v>0.88</v>
       </c>
@@ -858,7 +866,7 @@
       <c r="E5" s="3">
         <v>31</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <f>3.6*B5</f>
         <v>0.1008</v>
       </c>
@@ -866,7 +874,7 @@
         <f>H5*I5</f>
         <v>40.300000000000004</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <f>D5</f>
         <v>1.3</v>
       </c>
@@ -889,15 +897,44 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F6" s="11">
+        <f>3.6*B6</f>
+        <v>198</v>
+      </c>
+      <c r="G6" s="4">
+        <f>H6*I6</f>
+        <v>3634</v>
+      </c>
+      <c r="H6" s="11">
+        <f>D6</f>
+        <v>0.46</v>
+      </c>
+      <c r="I6" s="7">
+        <f>E6</f>
+        <v>7900</v>
+      </c>
+      <c r="J6" s="7">
+        <v>50</v>
+      </c>
+      <c r="K6" s="8">
+        <f>J6/1000/F6</f>
+        <v>2.5252525252525253E-4</v>
+      </c>
       <c r="M6" t="s">
         <v>17</v>
       </c>

--- a/Docs/材料物性値.xlsx
+++ b/Docs/材料物性値.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCopy\TRNSYS.JP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E56F7741-3051-45F8-9634-B9BAD6970BD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="物性値" sheetId="1" r:id="rId1"/>
+    <sheet name="換算" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +25,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yuichi Yasuda</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{3C57EFE3-5F21-4CE2-A0BD-79C0FCD31C5D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">注意：
+TRNSYSの設定ではｍ系で扱います。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
@@ -94,31 +122,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熱伝導率
-[kJ/hmk]</t>
+    <t>換算</t>
+    <rPh sb="0" eb="2">
+      <t>カンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容積比熱</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウセキヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比熱</t>
+    <rPh sb="0" eb="2">
+      <t>ヒネツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密度</t>
+    <rPh sb="0" eb="2">
+      <t>ミツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[g/L]=[0.001kg/0.001㎥]（　　　　〃　　　　）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[J/(gK)]=[0.001kJ/0.001kgK]（換算しても同じ値になるのでそのまま参照）</t>
+    <rPh sb="28" eb="30">
+      <t>カンザン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱伝導率</t>
     <rPh sb="0" eb="4">
       <t>ネツデンドウリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>比熱
-[kJ/kgK]</t>
+    <t>出典：試して学ぶ熱負荷HASPEE、空気調和衛生工学会、2012年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRNSYS側は比熱×密度の計算値</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒネツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ケイサンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[W/(mK)]=[0.001kJ/(1/3600h)/mK]=[3.6kJ/hmK]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼材</t>
     <rPh sb="0" eb="2">
-      <t>ヒネツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>密度
-[kg/㎥]</t>
-    <rPh sb="0" eb="2">
-      <t>ミツド</t>
+      <t>コウザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>容積比熱
+volumetric specific heat
 [kJ/㎥K]</t>
     <rPh sb="0" eb="3">
       <t>ヨウセキヒ</t>
@@ -129,110 +223,165 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>換算</t>
-    <rPh sb="0" eb="2">
-      <t>カンザン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>容積比熱</t>
-    <rPh sb="0" eb="3">
-      <t>ヨウセキヒ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>比熱</t>
+    <r>
+      <t xml:space="preserve">熱伝導率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>conductivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+[kJ/hmk]</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>ネツデンドウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">比熱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>capacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+[kJ/kgK]</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>ヒネツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>密度</t>
+    <r>
+      <t xml:space="preserve">密度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>density</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+[kg/㎥]</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>ミツド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[g/L]=[0.001kg/0.001㎥]（　　　　〃　　　　）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[J/(gK)]=[0.001kJ/0.001kgK]（換算しても同じ値になるのでそのまま参照）</t>
-    <rPh sb="28" eb="30">
-      <t>カンザン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熱伝導率</t>
-    <rPh sb="0" eb="4">
-      <t>ネツデンドウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出典：試して学ぶ熱負荷HASPEE、空気調和衛生工学会、2012年</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>厚み
+    <r>
+      <t xml:space="preserve">厚み
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>thickness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
 [mm]</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>アツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熱抵抗値
+    <r>
+      <t xml:space="preserve">熱抵抗値
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>resistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
 [hm2K/kJ]</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>ネツ</t>
     </rPh>
     <rPh sb="1" eb="4">
       <t>テイコウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TRNSYS側は比熱×密度の計算値</t>
-    <rPh sb="6" eb="7">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒネツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ミツド</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ケイサンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[W/(mK)]=[0.001kJ/(1/3600h)/mK]=[3.6kJ/hmK]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鋼材</t>
-    <rPh sb="0" eb="2">
-      <t>コウザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -240,13 +389,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.000;[Red]#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,13 +424,26 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,47 +460,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,11 +529,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,6 +549,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4038600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081B5E4F-C0E0-4C40-A30E-C8EA066519DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487399" y="476251"/>
+          <a:ext cx="3686176" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TRNSYS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>では材料を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Massive Layer(Conductivity, Capacity, Density)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、もしくは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Massless Layer(resistance)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>種類の方法で扱います。コンクリートなど熱容量のある材料は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Massive Layer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で、逆に熱容量の少ない断熱材などは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Massless Layer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が向いています。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,274 +966,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="10" width="9.21875" customWidth="1"/>
+    <col min="2" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="10" width="9.21875" customWidth="1"/>
     <col min="11" max="11" width="19.5546875" customWidth="1"/>
     <col min="12" max="12" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="53.44140625" customWidth="1"/>
     <col min="14" max="14" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="2"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="56.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="56.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.22</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>830</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>750</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>3.6*B3</f>
         <v>0.79200000000000004</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>H3*I3</f>
         <v>825.00000000000011</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>D3</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f t="shared" ref="I3" si="0">E3</f>
         <v>750</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>9</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>J3/1000/F3</f>
         <v>1.1363636363636362E-2</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.88</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2300</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>3.6*B4</f>
         <v>5.7600000000000007</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>H4*I4</f>
         <v>2024</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f t="shared" ref="H4" si="1">D4</f>
         <v>0.88</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f t="shared" ref="I4" si="2">E4</f>
         <v>2300</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>150</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f>J4/1000/F4</f>
         <v>2.6041666666666664E-2</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>40</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>31</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>3.6*B5</f>
         <v>0.1008</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>H5*I5</f>
         <v>40.300000000000004</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>D5</f>
         <v>1.3</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>E5</f>
         <v>31</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>30</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f>J5/1000/F5</f>
         <v>0.29761904761904762</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
         <v>55</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3600</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.46</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>7900</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>3.6*B6</f>
         <v>198</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>H6*I6</f>
         <v>3634</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>D6</f>
         <v>0.46</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f>E6</f>
         <v>7900</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>50</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f>J6/1000/F6</f>
         <v>2.5252525252525253E-4</v>
       </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="5"/>
+    <row r="7" spans="1:13">
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;D</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0156269-4A49-497A-9D46-44745007E475}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>

--- a/Docs/材料物性値.xlsx
+++ b/Docs/材料物性値.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkCopy\TRNSYS.JP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E56F7741-3051-45F8-9634-B9BAD6970BD7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371B464E-83B7-4049-A9F4-7F9EFA93F47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="330" windowWidth="24330" windowHeight="20130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物性値" sheetId="1" r:id="rId1"/>
-    <sheet name="換算" sheetId="2" r:id="rId2"/>
+    <sheet name="熱貫流率→熱抵抗値" sheetId="3" r:id="rId2"/>
+    <sheet name="換算" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>材料名</t>
     <rPh sb="0" eb="2">
@@ -385,17 +395,120 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>材料名</t>
+    <rPh sb="0" eb="3">
+      <t>ザイリョウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱貫流率</t>
+    <rPh sb="0" eb="4">
+      <t>ネツカンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱貫流率
+[W/(m2K)]</t>
+    <rPh sb="0" eb="4">
+      <t>ネツカンリュウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">熱抵抗値 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>resistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+[hm2K/kJ]</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[W/(m2K)]=[0.001kJ/(1/3600h)/m2K]=[3.6kJ/hm2K]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱貫流率
+[kJ/hm2K]</t>
+    <rPh sb="0" eb="3">
+      <t>ネツカンリュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(2.33W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(6.51W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(4.65W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(4.07W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(3.49W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(1.90W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドア(1.75W/m2K相当)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.000;[Red]#,##0.000"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +544,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +566,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -455,12 +581,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +623,15 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,7 +639,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="アクセント 4" xfId="1" builtinId="41"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -563,8 +702,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4038600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -579,8 +718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13487399" y="476251"/>
-          <a:ext cx="3686176" cy="1314450"/>
+          <a:off x="13973174" y="460376"/>
+          <a:ext cx="3686176" cy="1552574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,6 +800,97 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>が向いています。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E615D50-D177-4323-A0CF-3D1EF05BA86D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9302750" y="673100"/>
+          <a:ext cx="3686176" cy="1552574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>熱貫流率から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Massless Layer(resistance, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>熱抵抗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の換算例</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -972,43 +1202,43 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
-    <col min="2" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="10" width="9.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" customWidth="1"/>
-    <col min="13" max="13" width="53.44140625" customWidth="1"/>
-    <col min="14" max="14" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="5" width="9.2109375" customWidth="1"/>
+    <col min="6" max="6" width="13.2109375" customWidth="1"/>
+    <col min="7" max="7" width="20.2109375" customWidth="1"/>
+    <col min="8" max="10" width="9.2109375" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="13" max="13" width="53.42578125" customWidth="1"/>
+    <col min="14" max="14" width="65.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
       <c r="M1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="56.25">
+    <row r="2" spans="1:13" ht="52.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1225,19 +1455,173 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AFF8B-8A50-4EC0-B0A4-D62004F2083C}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.92578125" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="35">
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="12">
+        <v>6.51</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C11" si="0">B3*3.6</f>
+        <v>23.436</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:D11" si="1">1/C3</f>
+        <v>4.2669397508107186E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="12">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="0"/>
+        <v>16.740000000000002</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="1"/>
+        <v>5.9737156511350052E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4.07</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>14.652000000000001</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="1"/>
+        <v>6.8250068250068241E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3.49</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>12.564000000000002</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>7.9592486469277288E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2.33</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>8.3879999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.11921793037672866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>6.84</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.14619883040935672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.15873015873015872</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0156269-4A49-497A-9D46-44745007E475}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.5"/>
   <cols>
-    <col min="2" max="2" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.640625" customWidth="1"/>
+    <col min="2" max="2" width="65.640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1275,6 +1659,20 @@
       </c>
       <c r="B6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <f>0.001/(1/3600)</f>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
